--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Cntn1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H2">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I2">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J2">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.35974</v>
       </c>
       <c r="O2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P2">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q2">
-        <v>2.064169133722222</v>
+        <v>2.655342586535556</v>
       </c>
       <c r="R2">
-        <v>18.5775222035</v>
+        <v>23.89808327882</v>
       </c>
       <c r="S2">
-        <v>0.02379662770408039</v>
+        <v>0.01723985062871916</v>
       </c>
       <c r="T2">
-        <v>0.0237966277040804</v>
+        <v>0.01723985062871915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H3">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I3">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J3">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N3">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O3">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P3">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q3">
-        <v>1.846735361683334</v>
+        <v>5.911964450046669</v>
       </c>
       <c r="R3">
-        <v>16.62061825515</v>
+        <v>53.20768005042001</v>
       </c>
       <c r="S3">
-        <v>0.02128995785858525</v>
+        <v>0.03838351576851706</v>
       </c>
       <c r="T3">
-        <v>0.02128995785858526</v>
+        <v>0.03838351576851704</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I4">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J4">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,10 +688,10 @@
         <v>0.35974</v>
       </c>
       <c r="O4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P4">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q4">
         <v>41.57960682016</v>
@@ -700,10 +700,10 @@
         <v>374.21646138144</v>
       </c>
       <c r="S4">
-        <v>0.4793475531712613</v>
+        <v>0.2699562061841816</v>
       </c>
       <c r="T4">
-        <v>0.4793475531712614</v>
+        <v>0.2699562061841816</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>1040.241456</v>
       </c>
       <c r="I5">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J5">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N5">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O5">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P5">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q5">
-        <v>37.199727960864</v>
+        <v>92.57455464096002</v>
       </c>
       <c r="R5">
-        <v>334.797551647776</v>
+        <v>833.1709917686401</v>
       </c>
       <c r="S5">
-        <v>0.4288544298603374</v>
+        <v>0.6010416516961097</v>
       </c>
       <c r="T5">
-        <v>0.4288544298603376</v>
+        <v>0.6010416516961096</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H6">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I6">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J6">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.35974</v>
       </c>
       <c r="O6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P6">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q6">
-        <v>0.005101353026666667</v>
+        <v>0.01848300151777778</v>
       </c>
       <c r="R6">
-        <v>0.04591217724</v>
+        <v>0.16634701366</v>
       </c>
       <c r="S6">
-        <v>5.881058716528926E-05</v>
+        <v>0.0001200011580248166</v>
       </c>
       <c r="T6">
-        <v>5.881058716528927E-05</v>
+        <v>0.0001200011580248165</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H7">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I7">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J7">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N7">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P7">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q7">
-        <v>0.004563990844000001</v>
+        <v>0.04115131827333335</v>
       </c>
       <c r="R7">
-        <v>0.04107591759600001</v>
+        <v>0.3703618644600001</v>
       </c>
       <c r="S7">
-        <v>5.26156452904867E-05</v>
+        <v>0.0002671755365219231</v>
       </c>
       <c r="T7">
-        <v>5.261564529048672E-05</v>
+        <v>0.0002671755365219229</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H8">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I8">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J8">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.35974</v>
       </c>
       <c r="O8">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P8">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q8">
-        <v>2.125672802302222</v>
+        <v>3.466185394595556</v>
       </c>
       <c r="R8">
-        <v>19.13105522072</v>
+        <v>31.19566855136</v>
       </c>
       <c r="S8">
-        <v>0.02450566839252155</v>
+        <v>0.02250425943427514</v>
       </c>
       <c r="T8">
-        <v>0.02450566839252155</v>
+        <v>0.02250425943427514</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H9">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I9">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J9">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N9">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P9">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q9">
-        <v>1.901760406765333</v>
+        <v>7.717258380906668</v>
       </c>
       <c r="R9">
-        <v>17.115843660888</v>
+        <v>69.45532542816001</v>
       </c>
       <c r="S9">
-        <v>0.02192431019475035</v>
+        <v>0.05010441305189398</v>
       </c>
       <c r="T9">
-        <v>0.02192431019475036</v>
+        <v>0.05010441305189397</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H10">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I10">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J10">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.35974</v>
       </c>
       <c r="O10">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="P10">
-        <v>0.5277983996150155</v>
+        <v>0.3099390012751145</v>
       </c>
       <c r="Q10">
-        <v>0.007784214004444445</v>
+        <v>0.01828010815777778</v>
       </c>
       <c r="R10">
-        <v>0.07005792604</v>
+        <v>0.16452097342</v>
       </c>
       <c r="S10">
-        <v>8.973975998692604E-05</v>
+        <v>0.000118683869913785</v>
       </c>
       <c r="T10">
-        <v>8.973975998692604E-05</v>
+        <v>0.000118683869913785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H11">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I11">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J11">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.107282</v>
+        <v>0.2669800000000001</v>
       </c>
       <c r="N11">
-        <v>0.321846</v>
+        <v>0.8009400000000001</v>
       </c>
       <c r="O11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248855</v>
       </c>
       <c r="P11">
-        <v>0.4722016003849844</v>
+        <v>0.6900609987248854</v>
       </c>
       <c r="Q11">
-        <v>0.006964246790666667</v>
+        <v>0.04069958811333334</v>
       </c>
       <c r="R11">
-        <v>0.06267822111600001</v>
+        <v>0.3662962930200001</v>
       </c>
       <c r="S11">
-        <v>8.028682602088231E-05</v>
+        <v>0.0002642426718428504</v>
       </c>
       <c r="T11">
-        <v>8.028682602088231E-05</v>
+        <v>0.0002642426718428504</v>
       </c>
     </row>
   </sheetData>
